--- a/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11266</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5677</v>
+        <v>6499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18781</v>
+        <v>18598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0979772123683765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04936716965288419</v>
+        <v>0.05651569277830375</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1633313621299912</v>
+        <v>0.1617369765446386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>14219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8445</v>
+        <v>7786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22673</v>
+        <v>23310</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09508843341674454</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05647602925339631</v>
+        <v>0.05206895931325737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1516217641904113</v>
+        <v>0.1558827614795409</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -786,19 +786,19 @@
         <v>25485</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16951</v>
+        <v>17203</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35459</v>
+        <v>37022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09634418771796815</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06408131956689833</v>
+        <v>0.06503338942653224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1340493127148726</v>
+        <v>0.1399576260282425</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>103723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96208</v>
+        <v>96391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109312</v>
+        <v>108490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9020227876316235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.83666863787001</v>
+        <v>0.8382630234553619</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9506328303471159</v>
+        <v>0.9434843072216964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -836,19 +836,19 @@
         <v>135316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126862</v>
+        <v>126225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141090</v>
+        <v>141749</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9049115665832554</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8483782358095887</v>
+        <v>0.8441172385204588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9435239707466037</v>
+        <v>0.9479310406867425</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>245</v>
@@ -857,19 +857,19 @@
         <v>239039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>229065</v>
+        <v>227502</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247573</v>
+        <v>247321</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9036558122820318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8659506872851275</v>
+        <v>0.8600423739717575</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9359186804331018</v>
+        <v>0.9349666105734677</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5841</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2705</v>
+        <v>2062</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11750</v>
+        <v>11522</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04004044224927455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01854199997131972</v>
+        <v>0.01413314692283888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08054118683751693</v>
+        <v>0.07897908600056182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -982,19 +982,19 @@
         <v>18959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11618</v>
+        <v>11149</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29192</v>
+        <v>29551</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.103785305250031</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06360001912264406</v>
+        <v>0.06102834014914048</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1597991363618514</v>
+        <v>0.1617633233280631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>24801</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15826</v>
+        <v>16574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35328</v>
+        <v>37195</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07548172323070855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04816648531537675</v>
+        <v>0.05044416102680874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1075222402732099</v>
+        <v>0.1132020585330335</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>140048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>134139</v>
+        <v>134367</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>143184</v>
+        <v>143827</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9599595577507254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9194588131624831</v>
+        <v>0.9210209139994388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9814580000286806</v>
+        <v>0.9858668530771613</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -1053,19 +1053,19 @@
         <v>163721</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>153488</v>
+        <v>153129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>171062</v>
+        <v>171531</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8962146947499691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8402008636381485</v>
+        <v>0.8382366766719368</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9363999808773559</v>
+        <v>0.9389716598508595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>293</v>
@@ -1074,19 +1074,19 @@
         <v>303767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>293240</v>
+        <v>291373</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>312742</v>
+        <v>311994</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9245182767692914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8924777597267901</v>
+        <v>0.8867979414669666</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9518335146846233</v>
+        <v>0.9495558389731912</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6643</v>
+        <v>6337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01803005167421985</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06364364382824743</v>
+        <v>0.06072077984007612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>11801</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6572</v>
+        <v>6498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19977</v>
+        <v>20023</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08686886558401123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04837561342400697</v>
+        <v>0.04782868127848022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1470514312822384</v>
+        <v>0.1473871299139871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1220,19 +1220,19 @@
         <v>13683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7310</v>
+        <v>7607</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22127</v>
+        <v>23318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05695981181766499</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03043172504665239</v>
+        <v>0.03166776765143762</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09211294104126339</v>
+        <v>0.09706880499428587</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>102489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97728</v>
+        <v>98034</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>104371</v>
@@ -1258,7 +1258,7 @@
         <v>0.9819699483257801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9363563561717524</v>
+        <v>0.9392792201599246</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>124049</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>115873</v>
+        <v>115827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129278</v>
+        <v>129352</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9131311344159888</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8529485687177621</v>
+        <v>0.8526128700860131</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9516243865759931</v>
+        <v>0.9521713187215199</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>229</v>
@@ -1291,19 +1291,19 @@
         <v>226538</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>218094</v>
+        <v>216903</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>232911</v>
+        <v>232614</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.943040188182335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9078870589587367</v>
+        <v>0.9029311950057141</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9695682749533476</v>
+        <v>0.9683322323485622</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4640</v>
+        <v>4186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15756</v>
+        <v>15852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0651644492924936</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03381338879258341</v>
+        <v>0.03050901731975193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1148247259409671</v>
+        <v>0.1155278938217388</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1416,19 +1416,19 @@
         <v>19852</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11903</v>
+        <v>12180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30362</v>
+        <v>29945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09508735241767163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05701151987453086</v>
+        <v>0.05833869417696599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1454296765445751</v>
+        <v>0.1434302796195148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>28794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19596</v>
+        <v>18983</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40115</v>
+        <v>38966</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0832202872549531</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05663746345470384</v>
+        <v>0.05486479689019719</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.115941979130611</v>
+        <v>0.112620864794874</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>128275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121461</v>
+        <v>121365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132577</v>
+        <v>133031</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9348355507075063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.885175274059033</v>
+        <v>0.8844721061782616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9661866112074167</v>
+        <v>0.969490982680248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>182</v>
@@ -1487,19 +1487,19 @@
         <v>188925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>178415</v>
+        <v>178832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>196874</v>
+        <v>196597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9049126475823284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8545703234554251</v>
+        <v>0.8565697203804852</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9429884801254692</v>
+        <v>0.9416613058230341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>328</v>
@@ -1508,19 +1508,19 @@
         <v>317201</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>305880</v>
+        <v>307029</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>326399</v>
+        <v>327012</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9167797127450469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8840580208693896</v>
+        <v>0.8873791352051265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9433625365452961</v>
+        <v>0.945135203109803</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>27931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19530</v>
+        <v>20771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39046</v>
+        <v>39294</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0555883392534751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03886796964585754</v>
+        <v>0.04133816264855964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07770823723440244</v>
+        <v>0.07820261994036987</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1633,19 +1633,19 @@
         <v>64832</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50093</v>
+        <v>49473</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82171</v>
+        <v>82329</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09578562540648962</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0740095996793603</v>
+        <v>0.07309396344795066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1214041902790307</v>
+        <v>0.1216372916765228</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1654,19 +1654,19 @@
         <v>92763</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76038</v>
+        <v>73744</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115124</v>
+        <v>110795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07865882753380772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06447693487442044</v>
+        <v>0.06253138657991597</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09762005563941829</v>
+        <v>0.09394901740388777</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>474535</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>463420</v>
+        <v>463172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>482936</v>
+        <v>481695</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9444116607465249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9222917627655975</v>
+        <v>0.92179738005963</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9611320303541424</v>
+        <v>0.9586618373514403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>602</v>
@@ -1704,19 +1704,19 @@
         <v>612010</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>594671</v>
+        <v>594513</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>626749</v>
+        <v>627369</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9042143745935104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8785958097209692</v>
+        <v>0.8783627083234772</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9259904003206396</v>
+        <v>0.9269060365520493</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1095</v>
@@ -1725,19 +1725,19 @@
         <v>1086545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1064184</v>
+        <v>1068513</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1103270</v>
+        <v>1105564</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9213411724661923</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9023799443605817</v>
+        <v>0.9060509825961123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9355230651255796</v>
+        <v>0.937468613420084</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>10346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5176</v>
+        <v>5040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18513</v>
+        <v>17594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07414067665811079</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03709408909449084</v>
+        <v>0.03611756950869541</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1326645566224806</v>
+        <v>0.1260773372987762</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -2090,19 +2090,19 @@
         <v>32207</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22974</v>
+        <v>22697</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43801</v>
+        <v>43247</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.193105379746847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1377467272469814</v>
+        <v>0.1360817516102731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2626140470164037</v>
+        <v>0.2592955627825714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -2111,19 +2111,19 @@
         <v>42554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31181</v>
+        <v>31650</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56310</v>
+        <v>56244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1389122120223032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1017862280756207</v>
+        <v>0.1033181945383033</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1838173751890187</v>
+        <v>0.1836049530803388</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>129201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121034</v>
+        <v>121953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134371</v>
+        <v>134507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9258593233418893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8673354433775194</v>
+        <v>0.8739226627012238</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9629059109055091</v>
+        <v>0.9638824304913045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -2161,19 +2161,19 @@
         <v>134580</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>122986</v>
+        <v>123540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143813</v>
+        <v>144090</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8068946202531529</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7373859529835962</v>
+        <v>0.7407044372174292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8622532727530184</v>
+        <v>0.8639182483897269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>246</v>
@@ -2182,19 +2182,19 @@
         <v>263780</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>250024</v>
+        <v>250090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275153</v>
+        <v>274684</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8610877879776968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8161826248109816</v>
+        <v>0.8163950469196611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8982137719243792</v>
+        <v>0.8966818054616965</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>22877</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15212</v>
+        <v>14372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33191</v>
+        <v>33925</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1477079344599359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09822011663131315</v>
+        <v>0.09279877013500984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2143011599767779</v>
+        <v>0.2190437234756416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -2307,19 +2307,19 @@
         <v>53522</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41491</v>
+        <v>42170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66936</v>
+        <v>67770</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2796070742354842</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.21675156905116</v>
+        <v>0.2202984840752104</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.34967878880756</v>
+        <v>0.3540392483843818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -2328,19 +2328,19 @@
         <v>76399</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60275</v>
+        <v>62538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92165</v>
+        <v>94853</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2206166060022655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1740565291928496</v>
+        <v>0.1805900276995141</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2661434660779188</v>
+        <v>0.2739051981490971</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>132001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>121687</v>
+        <v>120953</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139666</v>
+        <v>140506</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8522920655400641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7856988400232222</v>
+        <v>0.7809562765243584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9017798833686869</v>
+        <v>0.9072012298649901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -2378,19 +2378,19 @@
         <v>137898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>124484</v>
+        <v>123650</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149929</v>
+        <v>149250</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7203929257645159</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6503212111924404</v>
+        <v>0.6459607516156182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7832484309488401</v>
+        <v>0.7797015159247896</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>247</v>
@@ -2399,19 +2399,19 @@
         <v>269899</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>254133</v>
+        <v>251445</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>286023</v>
+        <v>283760</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7793833939977346</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7338565339220813</v>
+        <v>0.7260948018509029</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8259434708071505</v>
+        <v>0.819409972300486</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>10842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5131</v>
+        <v>4609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20286</v>
+        <v>19951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1046538361071091</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04952393693583947</v>
+        <v>0.04448735876655486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1958192378712599</v>
+        <v>0.1925783812321895</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -2524,19 +2524,19 @@
         <v>36800</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26695</v>
+        <v>26647</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48028</v>
+        <v>48416</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2609560791023186</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1892975273318359</v>
+        <v>0.1889623122675948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3405813752108319</v>
+        <v>0.3433283173703249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -2545,19 +2545,19 @@
         <v>47642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35919</v>
+        <v>34570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63826</v>
+        <v>59866</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1947601855916239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1468372268500033</v>
+        <v>0.1413235857818628</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.260920826240483</v>
+        <v>0.2447349109274513</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>92756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83312</v>
+        <v>83647</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98467</v>
+        <v>98989</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8953461638928909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8041807621287399</v>
+        <v>0.8074216187678097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9504760630641602</v>
+        <v>0.955512641233445</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -2595,19 +2595,19 @@
         <v>104219</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92991</v>
+        <v>92603</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114324</v>
+        <v>114372</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7390439208976815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.659418624789168</v>
+        <v>0.6566716826296751</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8107024726681641</v>
+        <v>0.8110376877324051</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -2616,19 +2616,19 @@
         <v>196975</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180791</v>
+        <v>184751</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>208698</v>
+        <v>210047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8052398144083761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7390791737595169</v>
+        <v>0.7552650890725486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8531627731499967</v>
+        <v>0.8586764142181372</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>17391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10205</v>
+        <v>9968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27682</v>
+        <v>28180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1076107948540937</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06314317193909146</v>
+        <v>0.06167786002746038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1712871937683492</v>
+        <v>0.1743649447925381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -2741,19 +2741,19 @@
         <v>40553</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30918</v>
+        <v>29636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55051</v>
+        <v>53369</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1663703653139036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1268410916230084</v>
+        <v>0.1215844709334748</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2258498532959176</v>
+        <v>0.218948123872777</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -2762,19 +2762,19 @@
         <v>57944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42971</v>
+        <v>44349</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72175</v>
+        <v>73710</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1429436315325064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1060061650714807</v>
+        <v>0.1094048494682758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1780513401715423</v>
+        <v>0.1818368705984588</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>144222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133931</v>
+        <v>133433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151408</v>
+        <v>151645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8923892051459063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8287128062316508</v>
+        <v>0.8256350552074619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9368568280609085</v>
+        <v>0.9383221399725398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -2812,19 +2812,19 @@
         <v>203197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>188699</v>
+        <v>190381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212832</v>
+        <v>214114</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8336296346860964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7741501467040824</v>
+        <v>0.781051876127223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8731589083769917</v>
+        <v>0.8784155290665252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>325</v>
@@ -2833,19 +2833,19 @@
         <v>347419</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>333188</v>
+        <v>331653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>362392</v>
+        <v>361014</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8570563684674936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8219486598284577</v>
+        <v>0.8181631294015411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8939938349285191</v>
+        <v>0.8905951505317242</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>61456</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47343</v>
+        <v>46468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78238</v>
+        <v>78774</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1098143124118763</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08459532589505496</v>
+        <v>0.08303290123879449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1398022012955537</v>
+        <v>0.1407599269943047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -2958,19 +2958,19 @@
         <v>163082</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140252</v>
+        <v>140867</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188361</v>
+        <v>186359</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2194988910981649</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1887713790346695</v>
+        <v>0.1895989342097891</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2535231795977625</v>
+        <v>0.2508277677813896</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>202</v>
@@ -2979,19 +2979,19 @@
         <v>224538</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196770</v>
+        <v>196079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>257598</v>
+        <v>251238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1723754568658039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.151058225364264</v>
+        <v>0.150527808993669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1977546614099388</v>
+        <v>0.192872365741617</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>498181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>481399</v>
+        <v>480863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>512294</v>
+        <v>513169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8901856875881238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8601977987044463</v>
+        <v>0.8592400730056953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.915404674104945</v>
+        <v>0.9169670987612046</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>545</v>
@@ -3029,19 +3029,19 @@
         <v>579893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>554614</v>
+        <v>556616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>602723</v>
+        <v>602108</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7805011089018351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7464768204022371</v>
+        <v>0.7491722322186104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8112286209653304</v>
+        <v>0.8104010657902107</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>996</v>
@@ -3050,19 +3050,19 @@
         <v>1078074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1045014</v>
+        <v>1051374</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1105842</v>
+        <v>1106533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8276245431341961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8022453385900613</v>
+        <v>0.8071276342583831</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8489417746357361</v>
+        <v>0.8494721910063311</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>14735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8826</v>
+        <v>8679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21715</v>
+        <v>22330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1077628948304191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06454733496493166</v>
+        <v>0.06347539577581006</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1588103409052278</v>
+        <v>0.163307678946217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -3415,19 +3415,19 @@
         <v>27602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19504</v>
+        <v>17962</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39894</v>
+        <v>38512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1591880530351976</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1124857637425563</v>
+        <v>0.1035908337546478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2300823219206864</v>
+        <v>0.2221116152949846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -3436,19 +3436,19 @@
         <v>42337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30584</v>
+        <v>31260</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55248</v>
+        <v>56433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.136514708930745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0986189164402337</v>
+        <v>0.100798056475327</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1781463588510691</v>
+        <v>0.1819681425595124</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>121999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115019</v>
+        <v>114404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127908</v>
+        <v>128055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8922371051695809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8411896590947723</v>
+        <v>0.8366923210537822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9354526650350684</v>
+        <v>0.9365246042241895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -3486,19 +3486,19 @@
         <v>145789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133497</v>
+        <v>134879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>153887</v>
+        <v>155429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8408119469648024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7699176780793138</v>
+        <v>0.7778883847050151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8875142362574437</v>
+        <v>0.8964091662453518</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>265</v>
@@ -3507,19 +3507,19 @@
         <v>267788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254877</v>
+        <v>253692</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>279541</v>
+        <v>278865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8634852910692551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.821853641148931</v>
+        <v>0.8180318574404876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9013810835597663</v>
+        <v>0.899201943524673</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>12051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6886</v>
+        <v>6932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19022</v>
+        <v>20810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07306115744060288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0417474707169102</v>
+        <v>0.04202953236239482</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1153281497903799</v>
+        <v>0.1261658266864984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -3632,19 +3632,19 @@
         <v>24053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14983</v>
+        <v>15128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35270</v>
+        <v>36692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1097472504014752</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06836387533283526</v>
+        <v>0.06902442688164803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1609308797697047</v>
+        <v>0.1674183546580721</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -3653,19 +3653,19 @@
         <v>36103</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25547</v>
+        <v>24322</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49917</v>
+        <v>49793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09399361323035604</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06650949779959171</v>
+        <v>0.06332074439051255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1299577839934735</v>
+        <v>0.1296332163498754</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>152890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>145919</v>
+        <v>144131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158055</v>
+        <v>158009</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9269388425593972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.88467185020962</v>
+        <v>0.8738341733135002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9582525292830898</v>
+        <v>0.9579704676376052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -3703,19 +3703,19 @@
         <v>195110</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>183893</v>
+        <v>182471</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204180</v>
+        <v>204035</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8902527495985247</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.839069120230296</v>
+        <v>0.8325816453419281</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9316361246671649</v>
+        <v>0.9309755731183524</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>325</v>
@@ -3724,19 +3724,19 @@
         <v>348001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>334187</v>
+        <v>334311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>358557</v>
+        <v>359782</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.906006386769644</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8700422160065266</v>
+        <v>0.8703667836501247</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9334905022004083</v>
+        <v>0.9366792556094874</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>9654</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4777</v>
+        <v>4815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15814</v>
+        <v>17258</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08391999025050392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04152327716503763</v>
+        <v>0.0418598217984404</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1374755210210291</v>
+        <v>0.1500236985942758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3849,19 +3849,19 @@
         <v>21734</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13138</v>
+        <v>13428</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33262</v>
+        <v>32871</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1524145743780419</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09213667441077888</v>
+        <v>0.09416703877820171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2332622402568185</v>
+        <v>0.2305170593744489</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3870,19 +3870,19 @@
         <v>31387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21102</v>
+        <v>22077</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44338</v>
+        <v>44438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.12183100348048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08190635164780118</v>
+        <v>0.08569425088750246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1720978031952201</v>
+        <v>0.1724854203651554</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>105381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99221</v>
+        <v>97777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110258</v>
+        <v>110220</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9160800097494961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8625244789789709</v>
+        <v>0.8499763014057246</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9584767228349624</v>
+        <v>0.9581401782015597</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -3920,19 +3920,19 @@
         <v>120862</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109334</v>
+        <v>109725</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129458</v>
+        <v>129168</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8475854256219582</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7667377597431814</v>
+        <v>0.7694829406255512</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.907863325589221</v>
+        <v>0.9058329612217985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -3941,19 +3941,19 @@
         <v>226244</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>213293</v>
+        <v>213193</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236529</v>
+        <v>235554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.87816899651952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8279021968047797</v>
+        <v>0.8275145796348445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9180936483521988</v>
+        <v>0.9143057491124975</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>11415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5732</v>
+        <v>6076</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19565</v>
+        <v>18563</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06537286697436785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03282469822381329</v>
+        <v>0.03479647232258151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.112046017630042</v>
+        <v>0.106305661623776</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -4066,19 +4066,19 @@
         <v>29298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18899</v>
+        <v>18845</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42796</v>
+        <v>40949</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1206777176334406</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07784442108345724</v>
+        <v>0.07762061479333218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1762729798051111</v>
+        <v>0.1686659257799359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -4087,19 +4087,19 @@
         <v>40714</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27977</v>
+        <v>29239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55053</v>
+        <v>56215</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09754103785732329</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06702692269630424</v>
+        <v>0.07004973400919995</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1318950345705382</v>
+        <v>0.1346796317412348</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>163203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155053</v>
+        <v>156055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>168886</v>
+        <v>168542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9346271330256322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8879539823699583</v>
+        <v>0.8936943383762259</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9671753017761869</v>
+        <v>0.9652035276774186</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>176</v>
@@ -4137,19 +4137,19 @@
         <v>213483</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199985</v>
+        <v>201832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>223882</v>
+        <v>223936</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8793222823665594</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8237270201948889</v>
+        <v>0.8313340742200641</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9221555789165427</v>
+        <v>0.9223793852066677</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>354</v>
@@ -4158,19 +4158,19 @@
         <v>376686</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>362347</v>
+        <v>361185</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>389423</v>
+        <v>388161</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9024589621426767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8681049654294622</v>
+        <v>0.8653203682587653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9329730773036958</v>
+        <v>0.9299502659908008</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>47855</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35629</v>
+        <v>36871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61593</v>
+        <v>60684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08092740812815294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06025195846788279</v>
+        <v>0.06235300748886257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1041605946827333</v>
+        <v>0.1026239027605478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -4283,19 +4283,19 @@
         <v>102686</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83512</v>
+        <v>83197</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126356</v>
+        <v>124541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1319991951454119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1073519070056086</v>
+        <v>0.106947112790993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1624260812438831</v>
+        <v>0.1600931636468324</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -4304,19 +4304,19 @@
         <v>150541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>125630</v>
+        <v>127556</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174981</v>
+        <v>176448</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.109943340389356</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09175044759974234</v>
+        <v>0.0931573116247299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1277922320330952</v>
+        <v>0.1288639567938087</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>543473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>529735</v>
+        <v>530644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>555699</v>
+        <v>554457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9190725918718471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.895839405317267</v>
+        <v>0.897376097239452</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9397480415321174</v>
+        <v>0.9376469925111373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>575</v>
@@ -4354,19 +4354,19 @@
         <v>675245</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>651575</v>
+        <v>653390</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>694419</v>
+        <v>694734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8680008048545881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8375739187561168</v>
+        <v>0.839906836353168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8926480929943913</v>
+        <v>0.8930528872090071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1149</v>
@@ -4375,19 +4375,19 @@
         <v>1218718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1194278</v>
+        <v>1192811</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1243629</v>
+        <v>1241703</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.890056659610644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8722077679669049</v>
+        <v>0.8711360432061913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9082495524002576</v>
+        <v>0.9068426883752702</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>19057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13214</v>
+        <v>13021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26653</v>
+        <v>26892</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1166863379894934</v>
+        <v>0.1166863379894933</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08091462898563964</v>
+        <v>0.0797311545279842</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1631983385777469</v>
+        <v>0.164663310610527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -4740,19 +4740,19 @@
         <v>34048</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27043</v>
+        <v>27487</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41397</v>
+        <v>40999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1782328957619538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1415665299353742</v>
+        <v>0.1438915166485488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2167051588633561</v>
+        <v>0.214619388215393</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -4761,19 +4761,19 @@
         <v>53104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44046</v>
+        <v>44231</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63965</v>
+        <v>62878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1498665353136291</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1243030453395463</v>
+        <v>0.1248246229694897</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1805167504929756</v>
+        <v>0.1774492924090835</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>144257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136661</v>
+        <v>136422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150100</v>
+        <v>150293</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8833136620105068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.836801661422253</v>
+        <v>0.8353366893894731</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9190853710143606</v>
+        <v>0.9202688454720158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>363</v>
@@ -4811,19 +4811,19 @@
         <v>156981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>149632</v>
+        <v>150030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163986</v>
+        <v>163542</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8217671042380463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7832948411366439</v>
+        <v>0.7853806117846069</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8584334700646259</v>
+        <v>0.856108483351451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>586</v>
@@ -4832,19 +4832,19 @@
         <v>301239</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>290378</v>
+        <v>291465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>310297</v>
+        <v>310112</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.850133464686371</v>
+        <v>0.8501334646863711</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8194832495070242</v>
+        <v>0.8225507075909164</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8756969546604538</v>
+        <v>0.8751753770305103</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>15910</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10280</v>
+        <v>10491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23459</v>
+        <v>23275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08927855425850323</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05768420310686929</v>
+        <v>0.05887307402883463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1316394540258113</v>
+        <v>0.1306104594507207</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -4957,19 +4957,19 @@
         <v>39477</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32120</v>
+        <v>32022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48229</v>
+        <v>49269</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1633561198687017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1329146847952987</v>
+        <v>0.1325074450306448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1995707797791589</v>
+        <v>0.2038770259998166</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -4978,19 +4978,19 @@
         <v>55387</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45914</v>
+        <v>46185</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67331</v>
+        <v>66926</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1319153535491727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1093543412509118</v>
+        <v>0.1099997539019467</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1603628742754113</v>
+        <v>0.1593977245241187</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>162294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>154745</v>
+        <v>154929</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>167924</v>
+        <v>167713</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9107214457414969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8683605459741887</v>
+        <v>0.8693895405492793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9423157968931307</v>
+        <v>0.9411269259711653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>373</v>
@@ -5028,19 +5028,19 @@
         <v>202185</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193433</v>
+        <v>192393</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>209542</v>
+        <v>209640</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8366438801312982</v>
+        <v>0.8366438801312984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8004292202208412</v>
+        <v>0.7961229740001833</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8670853152047011</v>
+        <v>0.8674925549693552</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>603</v>
@@ -5049,19 +5049,19 @@
         <v>364479</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>352535</v>
+        <v>352940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>373952</v>
+        <v>373681</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8680846464508273</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8396371257245887</v>
+        <v>0.8406022754758814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8906456587490882</v>
+        <v>0.8900002460980534</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>7801</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3910</v>
+        <v>3307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14447</v>
+        <v>13410</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04882036979109343</v>
+        <v>0.04882036979109342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02446925398029259</v>
+        <v>0.0206983243052667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09041453911869633</v>
+        <v>0.08392646596742798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -5174,19 +5174,19 @@
         <v>22067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15997</v>
+        <v>16053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29723</v>
+        <v>29403</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1261650538306114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09145870475534898</v>
+        <v>0.09177978060349803</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1699345479319044</v>
+        <v>0.1681048470197747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -5195,19 +5195,19 @@
         <v>29868</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21850</v>
+        <v>22273</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39330</v>
+        <v>40623</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08924027795495779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06528345076948461</v>
+        <v>0.06654623256507815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1175101849731705</v>
+        <v>0.1213749274894272</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>151984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>145338</v>
+        <v>146375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155875</v>
+        <v>156478</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9511796302089065</v>
+        <v>0.9511796302089063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9095854608813037</v>
+        <v>0.9160735340325724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9755307460197075</v>
+        <v>0.9793016756947336</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>254</v>
@@ -5245,19 +5245,19 @@
         <v>152842</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145186</v>
+        <v>145506</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158912</v>
+        <v>158856</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8738349461693885</v>
+        <v>0.8738349461693886</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8300654520680962</v>
+        <v>0.8318951529802253</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9085412952446509</v>
+        <v>0.9082202193965019</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>438</v>
@@ -5266,19 +5266,19 @@
         <v>304826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>295364</v>
+        <v>294071</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>312844</v>
+        <v>312421</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9107597220450421</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8824898150268292</v>
+        <v>0.8786250725105723</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9347165492305155</v>
+        <v>0.9334537674349218</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>10212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6145</v>
+        <v>6174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16208</v>
+        <v>16195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04747709584494095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02856805462773841</v>
+        <v>0.0287029674817643</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07535431323563335</v>
+        <v>0.07529434930846064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -5391,19 +5391,19 @@
         <v>34263</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26128</v>
+        <v>26389</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43566</v>
+        <v>43352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1162554645389074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08865344449233127</v>
+        <v>0.0895390452101774</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1478236392909562</v>
+        <v>0.1470944971417708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -5412,19 +5412,19 @@
         <v>44474</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35624</v>
+        <v>35329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56280</v>
+        <v>55705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08723774858566108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06987697706813605</v>
+        <v>0.06929810671419707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1103953854911858</v>
+        <v>0.1092668895723976</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>204877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198881</v>
+        <v>198894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208944</v>
+        <v>208915</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.952522904155059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9246456867643662</v>
+        <v>0.9247056506915394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9714319453722614</v>
+        <v>0.9712970325182358</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>466</v>
@@ -5462,19 +5462,19 @@
         <v>260456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>251153</v>
+        <v>251367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>268591</v>
+        <v>268330</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8837445354610927</v>
+        <v>0.8837445354610926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8521763607090438</v>
+        <v>0.8529055028582293</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9113465555076689</v>
+        <v>0.9104609547898228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>777</v>
@@ -5483,19 +5483,19 @@
         <v>465333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>453527</v>
+        <v>454102</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>474183</v>
+        <v>474478</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.912762251414339</v>
+        <v>0.9127622514143389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8896046145088139</v>
+        <v>0.8907331104276023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9301230229318627</v>
+        <v>0.9307018932858029</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>52979</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42726</v>
+        <v>42359</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66351</v>
+        <v>67031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0739523874943054</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05964070459100219</v>
+        <v>0.05912828813131468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09261803392365449</v>
+        <v>0.09356806555638179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>249</v>
@@ -5608,19 +5608,19 @@
         <v>129855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116761</v>
+        <v>115115</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148098</v>
+        <v>144750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1439122116459985</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1294008848245739</v>
+        <v>0.1275765045815893</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1641301226709646</v>
+        <v>0.1604196063153727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>328</v>
@@ -5629,19 +5629,19 @@
         <v>182834</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162780</v>
+        <v>166131</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>203725</v>
+        <v>205279</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1129501476590319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1005615215150202</v>
+        <v>0.1026318704573405</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1258563108702813</v>
+        <v>0.1268162523731188</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>663412</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>650040</v>
+        <v>649360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>673665</v>
+        <v>674032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9260476125056946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9073819660763454</v>
+        <v>0.9064319344436181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9403592954089977</v>
+        <v>0.9408717118686852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1456</v>
@@ -5679,19 +5679,19 @@
         <v>772464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>754221</v>
+        <v>757569</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>785558</v>
+        <v>787204</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8560877883540016</v>
+        <v>0.8560877883540017</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8358698773290354</v>
+        <v>0.8395803936846271</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8705991151754261</v>
+        <v>0.8724234954184106</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2404</v>
@@ -5700,19 +5700,19 @@
         <v>1435876</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1414985</v>
+        <v>1413431</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1455930</v>
+        <v>1452579</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8870498523409683</v>
+        <v>0.8870498523409682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8741436891297188</v>
+        <v>0.8731837476268811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8994384784849798</v>
+        <v>0.8973681295426595</v>
       </c>
     </row>
     <row r="18">
